--- a/source.xlsx
+++ b/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karae\Documents\Git\phase_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB4FE8-77FF-4883-9F1B-70862CE4061C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C573DFB-CBD5-4285-A769-F3D5539D9374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2160,7 +2160,7 @@
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/source.xlsx
+++ b/source.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet name="NVTK_070420_200411" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="phase_analysis" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="phase_analysis1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -59,2519 +58,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 1</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$2:$B$7</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$2:$C$7</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 10</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$55:$B$62</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$55:$C$62</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 11</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$63:$B$67</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$63:$C$67</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 12</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$68:$B$74</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$68:$C$74</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 13</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$75:$B$80</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$75:$C$80</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 14</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$81:$B$85</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$81:$C$85</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 15</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$86:$B$91</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$86:$C$91</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 16</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$92:$B$96</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$92:$C$96</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 17</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$97:$B$101</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$97:$C$101</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 18</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$102:$B$108</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$102:$C$108</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 19</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$109:$B$113</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$109:$C$113</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 2</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$8:$B$14</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$8:$C$14</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 20</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$114:$B$118</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$114:$C$118</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 21</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$119:$B$125</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$119:$C$125</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 22</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$126:$B$130</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$126:$C$130</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 23</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$131:$B$135</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$131:$C$135</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 24</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$136:$B$140</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$136:$C$140</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 25</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$141:$B$147</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$141:$C$147</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 26</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$148:$B$154</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$148:$C$154</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Фазовый портрет</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$2:$B$154</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$2:$C$154</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Память квазициклов</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'phase_analysis'!B162</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'phase_analysis'!$A$163:$A$188</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'phase_analysis'!$B$163:$B$188</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Квазициклы</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Память</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>График движений площадей прямоугольников</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'phase_analysis'!B195</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'phase_analysis'!$A$195:$A$220</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'phase_analysis'!$B$196:$B$220</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Квазициклы</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Площади</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 3</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$15:$B$19</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$15:$C$19</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -2681,7 +167,1107 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 10</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$55:$B$62</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$55:$C$62</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 11</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$63:$B$67</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$63:$C$67</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 12</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$68:$B$74</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$68:$C$74</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 13</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$75:$B$80</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$75:$C$80</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 14</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$81:$B$85</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$81:$C$85</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 15</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$86:$B$91</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$86:$C$91</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 16</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$92:$B$96</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$92:$C$96</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 17</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$97:$B$101</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$97:$C$101</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 18</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$102:$B$108</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$102:$C$108</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 19</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$109:$B$113</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$109:$C$113</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -2791,7 +1377,997 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 20</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$114:$B$118</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$114:$C$118</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 21</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$119:$B$125</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$119:$C$125</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 22</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$126:$B$130</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$126:$C$130</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 23</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$131:$B$135</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$131:$C$135</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 24</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$136:$B$140</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$136:$C$140</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 25</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$141:$B$147</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$141:$C$147</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Квазицикл 26</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$148:$B$154</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$148:$C$154</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Фазовый портрет</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'phase_analysis'!$B$2:$B$154</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'phase_analysis'!$C$2:$C$154</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Память квазициклов</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'phase_analysis'!B162</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'phase_analysis'!$A$163:$A$188</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'phase_analysis'!$B$163:$B$188</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Квазициклы</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Память</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -2901,7 +2477,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -3011,7 +2587,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -3121,7 +2697,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -3231,7 +2807,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -3341,7 +2917,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -3451,7 +3027,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
@@ -3545,2866 +3121,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 10</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$55:$B$62</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$55:$C$62</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 4</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$20:$B$24</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$20:$C$24</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 11</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$63:$B$67</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$63:$C$67</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 12</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$68:$B$74</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$68:$C$74</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 13</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$75:$B$80</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$75:$C$80</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 14</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$81:$B$85</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$81:$C$85</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 15</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$86:$B$91</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$86:$C$91</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 16</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$92:$B$96</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$92:$C$96</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 17</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$97:$B$101</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$97:$C$101</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 18</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$102:$B$108</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$102:$C$108</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 19</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$109:$B$113</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$109:$C$113</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 20</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$114:$B$118</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$114:$C$118</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 5</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$25:$B$29</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$25:$C$29</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 21</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$119:$B$125</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$119:$C$125</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 22</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$126:$B$130</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$126:$C$130</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 23</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$131:$B$135</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$131:$C$135</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 24</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$136:$B$140</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$136:$C$140</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 25</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$141:$B$147</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$141:$C$147</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 26</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$148:$B$154</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$148:$C$154</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="12"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Фазовый портрет</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$2:$B$154</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$2:$C$154</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Память квазициклов</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'phase_analysis'!B162</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'phase_analysis'!$A$163:$A$188</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'phase_analysis'!$B$163:$B$188</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Квазициклы</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Память</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="14"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>График движений площадей прямоугольников</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'phase_analysis'!B195</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'phase_analysis'!$A$195:$A$220</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'phase_analysis'!$B$196:$B$220</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Квазициклы</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Площади</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 6</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$30:$B$34</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$30:$C$34</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 7</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$35:$B$40</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$35:$C$40</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 8</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$41:$B$47</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$41:$C$47</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Квазицикл 9</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'phase_analysis'!$B$48:$B$54</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'phase_analysis'!$C$48:$C$54</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -7046,657 +3762,22 @@
       <row>55</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="29" name="Chart 29"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId29"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="30" name="Chart 30"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId30"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="31" name="Chart 31"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId31"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="32" name="Chart 32"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId32"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="33" name="Chart 33"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId33"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="34" name="Chart 34"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId34"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="35" name="Chart 35"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId35"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>45</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="36" name="Chart 36"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId36"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>45</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="37" name="Chart 37"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId37"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>60</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="38" name="Chart 38"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId38"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>60</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="39" name="Chart 39"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId39"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="40" name="Chart 40"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId40"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="41" name="Chart 41"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId41"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>90</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="42" name="Chart 42"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId42"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>90</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="43" name="Chart 43"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId43"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>105</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="44" name="Chart 44"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId44"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>105</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="45" name="Chart 45"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId45"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>120</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="46" name="Chart 46"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId46"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>120</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="47" name="Chart 47"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId47"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>135</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="48" name="Chart 48"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId48"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>135</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="49" name="Chart 49"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId49"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>150</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="50" name="Chart 50"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId50"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>150</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="51" name="Chart 51"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId51"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>165</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="52" name="Chart 52"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId52"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>165</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="53" name="Chart 53"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId53"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>180</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="54" name="Chart 54"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId54"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>180</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3600000" cy="2520000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="55" name="Chart 55"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId55"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>16</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7200000" cy="7200000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="56" name="Chart 56"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId56"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>16</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="57" name="Chart 57"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId57"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>16</col>
-      <colOff>0</colOff>
-      <row>55</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7200000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="58" name="Chart 58"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId58"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
     <clientData/>
   </oneCellAnchor>
 </wsDr>
@@ -14466,7 +10547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q220"/>
+  <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16408,246 +12489,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Номер квазицикла</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Площадь квазицикла</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>1</v>
-      </c>
-      <c r="B195" t="n">
-        <v>919.6451000000003</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2884.192200000001</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>3</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2776.646100000001</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>4</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1189.4958</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>5</v>
-      </c>
-      <c r="B199" t="n">
-        <v>356.7740999999995</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>6</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1836.078399999998</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>7</v>
-      </c>
-      <c r="B201" t="n">
-        <v>256.0649999999999</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>8</v>
-      </c>
-      <c r="B202" t="n">
-        <v>9426.468099999995</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>9</v>
-      </c>
-      <c r="B203" t="n">
-        <v>6252.064899999998</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>10</v>
-      </c>
-      <c r="B204" t="n">
-        <v>15537.62249999999</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>11</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1013.659399999998</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>12</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2984.4369</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>13</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1362.348099999998</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>14</v>
-      </c>
-      <c r="B208" t="n">
-        <v>9763.882099999997</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>15</v>
-      </c>
-      <c r="B209" t="n">
-        <v>6304.015899999995</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>16</v>
-      </c>
-      <c r="B210" t="n">
-        <v>17875.69</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>17</v>
-      </c>
-      <c r="B211" t="n">
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>18</v>
-      </c>
-      <c r="B212" t="n">
-        <v>9254.44000000001</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>19</v>
-      </c>
-      <c r="B213" t="n">
-        <v>2843.099999999995</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>20</v>
-      </c>
-      <c r="B214" t="n">
-        <v>11259.70000000001</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>21</v>
-      </c>
-      <c r="B215" t="n">
-        <v>14184.81</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>22</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4583.290000000006</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>23</v>
-      </c>
-      <c r="B217" t="n">
-        <v>8208.000000000024</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>24</v>
-      </c>
-      <c r="B218" t="n">
-        <v>39864.88000000006</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>25</v>
-      </c>
-      <c r="B219" t="n">
-        <v>30387.75999999997</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>26</v>
-      </c>
-      <c r="B220" t="n">
-        <v>56834.55999999993</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>